--- a/psychopyExperiments/oddball-task-master/aud_conditions.xlsx
+++ b/psychopyExperiments/oddball-task-master/aud_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elpid\Downloads\oddball-task-master\oddball-task-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF88BFD-2553-4F70-82E3-A8F5107728BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D70ECEE-ACB1-47F5-85E8-14E61965B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>soundFiles/1200Hz_-3dBFS_3s_44.1kHz.wav'</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -404,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -432,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -446,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1200</v>
